--- a/biology/Médecine/Liste_des_CLSC_du_Québec/Liste_des_CLSC_du_Québec.xlsx
+++ b/biology/Médecine/Liste_des_CLSC_du_Québec/Liste_des_CLSC_du_Québec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_CLSC_du_Qu%C3%A9bec</t>
+          <t>Liste_des_CLSC_du_Québec</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Voici une liste des CLSC de la province de Québec, au Canada.
 Il faut distinguer les territoires CLSC des installations CLSC.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_CLSC_du_Qu%C3%A9bec</t>
+          <t>Liste_des_CLSC_du_Québec</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Abitibi-Témiscamingue</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Centre de santé de Témiscaming, Témiscaming
 Centre de santé Sainte-Famille, Ville-Marie
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_CLSC_du_Qu%C3%A9bec</t>
+          <t>Liste_des_CLSC_du_Québec</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Bas-Saint-Laurent</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>CLSC Rivières et Marées, Rivière-du-Loup
 Centre mitissien de santé et de services communautaies, Mont-Joli
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_CLSC_du_Qu%C3%A9bec</t>
+          <t>Liste_des_CLSC_du_Québec</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,17 +597,53 @@
           <t>Capitale-Nationale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Centre de santé Orléans, Beaupré
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Centre de santé Orléans, Beaupré
 CLSC de Baie-Saint-Paul, Baie-Saint-Paul
 CLSC de Baie-Sainte-Catherine, Baie-Sainte-Catherine
 CLSC de La Malbaie, La Malbaie
 CLSC de l'Isle-aux-Coudres, Isle-aux-Coudres
 CLSC de Saint-Siméon, Saint-Siméon
-CLSC Val-Bélair - Région de la Jacques Cartier, Val-Bélair
-Ville de Québec et ses environs
-CLSC de la Basse-Ville, Québec
+CLSC Val-Bélair - Région de la Jacques Cartier, Val-Bélair</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_CLSC_du_Québec</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_CLSC_du_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Capitale-Nationale</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ville de Québec et ses environs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CLSC de la Basse-Ville, Québec
 CLSC de Cap-Rouge–Saint-Augustin, Québec
 CLSC des Rivières, Québec
 CLSC de la Haute-Ville, Québec
@@ -604,31 +656,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_des_CLSC_du_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_CLSC_du_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_CLSC_du_Québec</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_CLSC_du_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Côte-Nord</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Centre de santé de l'Hématite, Fermont
 Centre de santé de la Basse Côte-Nord, Blanc-Sablon
@@ -639,31 +693,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Liste_des_CLSC_du_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_CLSC_du_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_CLSC_du_Québec</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_CLSC_du_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Chaudière-Appalaches</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>CLSC de Beaucevlle, Beauceville
 CLSC de St-Georges, Saint-Georges
@@ -671,31 +727,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Liste_des_CLSC_du_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_CLSC_du_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_CLSC_du_Québec</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_CLSC_du_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Estrie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Carrefour de la SSS - CLSC et CHSLD de la MRC Coaticook
 Carrefour de la SSS du Val Saint-François
@@ -707,31 +765,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Liste_des_CLSC_du_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_CLSC_du_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_CLSC_du_Québec</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_CLSC_du_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Gaspésie-Îles-de-la-Madeleine</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>CLSC de la MRC Denis-Riverin
 CLSC des Îles-CH de l'Archipel
@@ -742,31 +802,33 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Liste_des_CLSC_du_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_CLSC_du_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_CLSC_du_Québec</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_CLSC_du_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Lanaudière</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Carrefour de la SSS de Matawinie (CLSC-CHSLD)
 CLSC-CHSLD d'Autray
@@ -777,31 +839,33 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Liste_des_CLSC_du_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_CLSC_du_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_CLSC_du_Québec</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_CLSC_du_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Laurentides</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>CLSC-CHSLD des Pays-d'en-Haut
 CLSC-CHSLD des Trois-Vallées
@@ -812,31 +876,33 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Liste_des_CLSC_du_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_CLSC_du_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_CLSC_du_Québec</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_CLSC_du_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Laval</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>CLSC-CHSLD du Marigot
 CLSC-CHSLD du Ruisseau-Papineau
@@ -845,31 +911,33 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Liste_des_CLSC_du_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_CLSC_du_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_CLSC_du_Québec</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_CLSC_du_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Mauricie</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Carrefour de SSS de la Saint-Maurice
 CLSC du Centre-de-la-Mauricie
@@ -878,31 +946,33 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Liste_des_CLSC_du_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_CLSC_du_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_des_CLSC_du_Québec</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_CLSC_du_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Centre-du-Québec</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>CLSC Suzor-Coté (Victoriaville)
 CLSC-CHSLD Les blés d'or (Fortierville)
@@ -911,42 +981,147 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Liste_des_CLSC_du_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_CLSC_du_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_des_CLSC_du_Québec</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_CLSC_du_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Montérégie</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>La région de la Montérégie es découpée en trois territoires de Centre intégré de santé et de services sociaux (CISSS).
-CISSS Montérégie-Est
-CSSS Pierre-De Saurel
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La région de la Montérégie es découpée en trois territoires de Centre intégré de santé et de services sociaux (CISSS).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_des_CLSC_du_Québec</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_CLSC_du_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Montérégie</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>CISSS Montérégie-Est</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>CSSS Pierre-De Saurel
 CSSS Pierre-Boucher
-CSSS Richelieu-Yamaska
-CISSS Montérégie-Centre
-CSSS Champlain-Charles-Le Moyne
-CSSS Haut-Richelieu-Rouville
-CISSS Montérégie-Ouest
-CSSS Haut-Saint-Laurent
+CSSS Richelieu-Yamaska</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_des_CLSC_du_Québec</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_CLSC_du_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Montérégie</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>CISSS Montérégie-Centre</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>CSSS Champlain-Charles-Le Moyne
+CSSS Haut-Richelieu-Rouville</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_des_CLSC_du_Québec</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_CLSC_du_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Montérégie</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>CISSS Montérégie-Ouest</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>CSSS Haut-Saint-Laurent
 CSSS Jardins-Roussillon
 CSSS Suroît (Beauharnois-Salaberry)
 CSSS Vaudreuil-Soulanges
@@ -969,38 +1144,74 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Liste_des_CLSC_du_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_CLSC_du_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_des_CLSC_du_Québec</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_CLSC_du_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Montréal</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Clinique communautaire de Pointe-Saint-Charles  - territoire couvrant les codes postaux commençant par : H3K
 CLSC Mercier-Est/Anjou - territoire couvrant les codes postaux commençant par : H1B, H1E, H1J, H1M, H1K et H1L
 CLSC St-Henri - territoire couvrant les codes postaux commençant par : H3C, H3J, H4C, H4Z et H5A
-CLSC Notre-Dame-de-Grâce/Montréal-Ouest (CLSC NDG/MTL-O)
-Centre de santé et de services sociaux (CSSS) Montréal
-CSSS Cavendish
+CLSC Notre-Dame-de-Grâce/Montréal-Ouest (CLSC NDG/MTL-O)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_des_CLSC_du_Québec</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_CLSC_du_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Montréal</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Centre de santé et de services sociaux (CSSS) Montréal</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>CSSS Cavendish
 CLSC DE BENNY FARM
 CLSC RENÉ-CASSIN
 HÔPITAL CATHERINE BOOTH
@@ -1091,61 +1302,65 @@
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Liste_des_CLSC_du_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_CLSC_du_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_des_CLSC_du_Québec</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_CLSC_du_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Nord-du-Québec</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Centre régional de SSS de la Baie-James</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Liste_des_CLSC_du_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_CLSC_du_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_des_CLSC_du_Québec</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_CLSC_du_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Outaouais</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>CLSC-CH-CHSLD Des Forestiers
 CLSC-CHSLD de la Petite-Nation
@@ -1158,31 +1373,33 @@
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Liste_des_CLSC_du_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_CLSC_du_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_des_CLSC_du_Québec</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_CLSC_du_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Saguenay-Lac-Saint-Jean</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t xml:space="preserve">Carrefour de santé Jonquière
 CLSC de la Jonquière
